--- a/Stundenliste.xlsx
+++ b/Stundenliste.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Stundenliste</t>
   </si>
@@ -44,15 +44,9 @@
     <t>Testprojekt erstellen</t>
   </si>
   <si>
-    <t>Beispiel apk mit Resty (login, alle Kraftwerke anzeigen)</t>
-  </si>
-  <si>
     <t>Exposé 1. Entwurf</t>
   </si>
   <si>
-    <t>latex installieren und Templet konfigurieren</t>
-  </si>
-  <si>
     <t>Exposé State of the Art</t>
   </si>
   <si>
@@ -63,6 +57,18 @@
   </si>
   <si>
     <t>Exposé fertig gestellt</t>
+  </si>
+  <si>
+    <t>Authentifizieren, alle Kraftwerke auslesen</t>
+  </si>
+  <si>
+    <t>Beispiel apk mit Resty (Login, alle Kraftwerke anzeigen)</t>
+  </si>
+  <si>
+    <t>Latex installieren und Templet konfigurieren</t>
+  </si>
+  <si>
+    <t>Retrofit eingelesen</t>
   </si>
 </sst>
 </file>
@@ -419,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +447,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="2">
         <f>SUM(C3:C151)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -487,7 +493,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -495,7 +501,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -503,7 +509,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -511,7 +517,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -519,7 +525,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>2.5</v>
@@ -530,7 +536,7 @@
         <v>42134</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -541,10 +547,32 @@
         <v>42136</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>42137</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>42138</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenliste.xlsx
+++ b/Stundenliste.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Stundenliste</t>
   </si>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>Retrofit eingelesen</t>
+  </si>
+  <si>
+    <t>Detail Overview</t>
+  </si>
+  <si>
+    <t>Evulution in Detail, BugFixes</t>
+  </si>
+  <si>
+    <t>create PowerPlant</t>
+  </si>
+  <si>
+    <t>create fertig gestellt, Design</t>
   </si>
 </sst>
 </file>
@@ -425,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +459,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="2">
         <f>SUM(C3:C151)</f>
-        <v>37</v>
+        <v>59.5</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -480,7 +492,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -550,7 +562,7 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -572,7 +584,51 @@
         <v>11</v>
       </c>
       <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>42139</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>42141</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>42149</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
         <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>42151</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenliste.xlsx
+++ b/Stundenliste.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Stundenliste</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>create fertig gestellt, Design</t>
+  </si>
+  <si>
+    <t>delete implementiert</t>
+  </si>
+  <si>
+    <t>Design</t>
   </si>
 </sst>
 </file>
@@ -437,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +465,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="2">
         <f>SUM(C3:C151)</f>
-        <v>59.5</v>
+        <v>62.5</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -629,6 +635,28 @@
       </c>
       <c r="C20">
         <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>42152</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>42153</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenliste.xlsx
+++ b/Stundenliste.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Stundenliste</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>Design</t>
+  </si>
+  <si>
+    <t>CardView</t>
+  </si>
+  <si>
+    <t>CardView Design</t>
+  </si>
+  <si>
+    <t>Dark Desgin, Fehler Table View</t>
   </si>
 </sst>
 </file>
@@ -443,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,7 +474,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="2">
         <f>SUM(C3:C151)</f>
-        <v>62.5</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -657,6 +666,39 @@
       </c>
       <c r="C22">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>42184</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>42187</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>42189</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenliste.xlsx
+++ b/Stundenliste.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Stundenliste</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Dark Desgin, Fehler Table View</t>
+  </si>
+  <si>
+    <t>update Funktionalität, Design</t>
   </si>
 </sst>
 </file>
@@ -452,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +477,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="2">
         <f>SUM(C3:C151)</f>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -699,6 +702,17 @@
       </c>
       <c r="C25">
         <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>42206</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenliste.xlsx
+++ b/Stundenliste.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Stundenliste</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>update Funktionalität, Design</t>
+  </si>
+  <si>
+    <t>Jersy und Recherche</t>
   </si>
 </sst>
 </file>
@@ -455,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +480,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="2">
         <f>SUM(C3:C151)</f>
-        <v>80</v>
+        <v>81.5</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -713,6 +716,17 @@
       </c>
       <c r="C26">
         <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>42207</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenliste.xlsx
+++ b/Stundenliste.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Stundenliste</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Jersy und Recherche</t>
+  </si>
+  <si>
+    <t>Spring for Android, Recherche</t>
+  </si>
+  <si>
+    <t>Spring for Android FEHLER</t>
   </si>
 </sst>
 </file>
@@ -458,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +486,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="2">
         <f>SUM(C3:C151)</f>
-        <v>81.5</v>
+        <v>88.5</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -727,6 +733,28 @@
       </c>
       <c r="C27">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>42208</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>42209</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenliste.xlsx
+++ b/Stundenliste.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni\6. Semester\Bachelorarbeit\Git\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18900" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Stundenliste</t>
   </si>
@@ -108,16 +103,22 @@
   </si>
   <si>
     <t>Spring for Android FEHLER</t>
+  </si>
+  <si>
+    <t>Literatursuche zu Rest und Stichwörter</t>
+  </si>
+  <si>
+    <t>Exposé überarbeitet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,7 +187,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -244,7 +245,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,7 +280,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -456,41 +457,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="5"/>
     <col min="2" max="2" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="23.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="19.5" thickBot="1">
       <c r="A2" s="4"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2">
         <f>SUM(C3:C151)</f>
-        <v>88.5</v>
+        <v>97.5</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -498,7 +499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -506,7 +507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -514,7 +515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -522,7 +523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -530,7 +531,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -538,7 +539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -546,7 +547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -554,7 +555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -562,7 +563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -570,7 +571,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="5">
         <v>42134</v>
       </c>
@@ -581,7 +582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="5">
         <v>42136</v>
       </c>
@@ -592,7 +593,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="5">
         <v>42137</v>
       </c>
@@ -603,7 +604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="5">
         <v>42138</v>
       </c>
@@ -614,7 +615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="5">
         <v>42139</v>
       </c>
@@ -625,7 +626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="5">
         <v>42141</v>
       </c>
@@ -636,7 +637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="5">
         <v>42149</v>
       </c>
@@ -647,7 +648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="5">
         <v>42151</v>
       </c>
@@ -658,7 +659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="5">
         <v>42152</v>
       </c>
@@ -669,7 +670,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="5">
         <v>42153</v>
       </c>
@@ -680,7 +681,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="5">
         <v>42184</v>
       </c>
@@ -691,7 +692,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="5">
         <v>42187</v>
       </c>
@@ -702,7 +703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="5">
         <v>42189</v>
       </c>
@@ -713,7 +714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="5">
         <v>42206</v>
       </c>
@@ -724,7 +725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="5">
         <v>42207</v>
       </c>
@@ -735,7 +736,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="5">
         <v>42208</v>
       </c>
@@ -746,7 +747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="5">
         <v>42209</v>
       </c>
@@ -755,6 +756,33 @@
       </c>
       <c r="C29">
         <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="5">
+        <v>42237</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5">
+        <v>42270</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5">
+        <v>42271</v>
       </c>
     </row>
   </sheetData>
